--- a/test/01.test/submission_tracker.xlsx
+++ b/test/01.test/submission_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/01.test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8387731-BC48-7146-B669-076C3FFA5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDF4C0-DEF8-B843-BAEB-0DE3C5F9FF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>sequencing_type_requested</t>
   </si>
   <si>
-    <t>covid sequencing</t>
-  </si>
-  <si>
     <t>CMT15I</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>number_of_cycles</t>
+  </si>
+  <si>
+    <t>ISARIC</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,43 +1337,43 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" t="s">
-        <v>84</v>
-      </c>
       <c r="AL1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" t="s">
-        <v>96</v>
-      </c>
       <c r="AU1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
@@ -1384,19 +1384,19 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
       </c>
       <c r="I2">
         <v>-15.805261229999999</v>
@@ -1405,13 +1405,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
         <v>36</v>
@@ -1426,7 +1426,7 @@
         <v>2021</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s">
         <v>37</v>
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM2">
         <v>15.4</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="AP2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ2">
         <v>15.4</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU2">
         <v>12</v>
@@ -1497,19 +1497,19 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
       </c>
       <c r="I3">
         <v>-15.805261229999999</v>
@@ -1518,13 +1518,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1539,7 +1539,7 @@
         <v>2021</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s">
         <v>40</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM3">
         <v>15.4</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="AP3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ3">
         <v>15.4</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU3">
         <v>12</v>
@@ -1610,19 +1610,19 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
       </c>
       <c r="I4">
         <v>-15.805261229999999</v>
@@ -1631,13 +1631,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -1652,10 +1652,10 @@
         <v>2021</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
         <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
       </c>
       <c r="Y4" s="1">
         <v>44348</v>
@@ -1673,7 +1673,7 @@
         <v>39</v>
       </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI4" s="1">
         <v>44348</v>
@@ -1682,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4">
         <v>33.4</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="AP4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ4">
         <v>33.4</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU4">
         <v>12</v>
@@ -1723,19 +1723,19 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
         <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
       </c>
       <c r="I5">
         <v>-15.805261229999999</v>
@@ -1744,13 +1744,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -1765,10 +1765,10 @@
         <v>2021</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="1">
         <v>44348</v>
@@ -1786,7 +1786,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI5" s="1">
         <v>44348</v>
@@ -1795,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5">
         <v>22.5</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="AP5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ5">
         <v>22.5</v>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU5">
         <v>12</v>
@@ -1836,19 +1836,19 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
       </c>
       <c r="I6">
         <v>-15.805261229999999</v>
@@ -1857,13 +1857,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -1878,10 +1878,10 @@
         <v>2021</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y6" s="1">
         <v>44348</v>
@@ -1899,7 +1899,7 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI6" s="1">
         <v>44348</v>
@@ -1908,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6">
         <v>38.5</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="AP6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ6">
         <v>38.5</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU6">
         <v>12</v>
@@ -1949,19 +1949,19 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
       </c>
       <c r="I7">
         <v>-15.805264559999999</v>
@@ -1970,13 +1970,13 @@
         <v>35.022321460000001</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -1991,10 +1991,10 @@
         <v>2021</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y7" s="1">
         <v>44348</v>
@@ -2012,7 +2012,7 @@
         <v>39</v>
       </c>
       <c r="AH7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI7" s="1">
         <v>44348</v>
@@ -2021,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM7">
         <v>12.5</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="AP7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ7">
         <v>12.5</v>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU7">
         <v>12</v>
@@ -2062,19 +2062,19 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
       </c>
       <c r="I8">
         <v>-15.805261229999999</v>
@@ -2083,13 +2083,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2104,10 +2104,10 @@
         <v>2021</v>
       </c>
       <c r="W8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="1">
         <v>44348</v>
@@ -2125,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI8" s="1">
         <v>44348</v>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM8">
         <v>12.4</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ8">
         <v>12.4</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU8">
         <v>12</v>
@@ -2175,19 +2175,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
       </c>
       <c r="I9">
         <v>-15.805261229999999</v>
@@ -2196,13 +2196,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -2217,10 +2217,10 @@
         <v>2021</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="1">
         <v>44348</v>
@@ -2238,7 +2238,7 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI9" s="1">
         <v>44348</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM9">
         <v>19.600000000000001</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ9">
         <v>19.600000000000001</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU9">
         <v>12</v>
@@ -2288,19 +2288,19 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
       </c>
       <c r="I10">
         <v>-15.805261229999999</v>
@@ -2309,13 +2309,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -2330,10 +2330,10 @@
         <v>2021</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="1">
         <v>44348</v>
@@ -2351,7 +2351,7 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI10" s="1">
         <v>44348</v>
@@ -2360,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN10" s="1">
         <v>44348</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR10" s="1"/>
     </row>
@@ -2384,19 +2384,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
       </c>
       <c r="I11">
         <v>-15.805261229999999</v>
@@ -2405,13 +2405,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -2426,10 +2426,10 @@
         <v>2021</v>
       </c>
       <c r="W11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="1">
         <v>44348</v>
@@ -2447,7 +2447,7 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI11" s="1">
         <v>44348</v>
@@ -2456,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM11">
         <v>23.4</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ11">
         <v>23.4</v>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU11">
         <v>12</v>
@@ -2497,19 +2497,19 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
         <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
       </c>
       <c r="I12">
         <v>-15.805261229999999</v>
@@ -2518,13 +2518,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2539,10 +2539,10 @@
         <v>2021</v>
       </c>
       <c r="W12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="1">
         <v>44348</v>
@@ -2560,7 +2560,7 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI12" s="1">
         <v>44348</v>
@@ -2569,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12">
         <v>23.4</v>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ12">
         <v>23.4</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -2610,19 +2610,19 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
       </c>
       <c r="I13">
         <v>-15.805261229999999</v>
@@ -2631,13 +2631,13 @@
         <v>35.022320350000001</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -2652,10 +2652,10 @@
         <v>2021</v>
       </c>
       <c r="W13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="1">
         <v>44348</v>
@@ -2673,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI13" s="1">
         <v>44348</v>
@@ -2682,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="AK13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13">
         <v>23.4</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="AP13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ13">
         <v>23.4</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU13">
         <v>12</v>
